--- a/biology/Médecine/Centre_hospitalier_(France)/Centre_hospitalier_(France).xlsx
+++ b/biology/Médecine/Centre_hospitalier_(France)/Centre_hospitalier_(France).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, un centre hospitalier (CH) est un établissement public de santé. On les classe en centres hospitaliers régionaux, généraux, universitaires...
-La taille et l'activité de ces établissements sont très variables. La France en comptait 530 en 1995. Ils sont dotés d'un service des urgences. Ils présentent des enjeux particuliers de sécurité sanitaire (pour la gestion du risque nosocomial notamment[1]), ce sont des lieux importants de formation et pour la recherche médicale[2], et ils jouent un rôle particulier dans divers plans nationaux, en cas d'accident nucléaire ou de pandémie grippale par exemple. Ce sont aussi des sources majeures de données médicales, essentielles à la recherche et à la programmation et à l'évaluation du secteur de la santé publique, ces données restent cependant encore (dans les années 2010), dont pour des raisons déontologiques difficiles d'accès[3], ce qui pourrait peut-être changer avec l'informatisation du secteur médical (du dossier médical des patients notamment)[4].
-Depuis la crise de 2007 une grande partie des hôpitaux publics français sont en déficit et si leur dette se réduit depuis 2015, c'est au détriment de l'investissement[5],[6].
+La taille et l'activité de ces établissements sont très variables. La France en comptait 530 en 1995. Ils sont dotés d'un service des urgences. Ils présentent des enjeux particuliers de sécurité sanitaire (pour la gestion du risque nosocomial notamment), ce sont des lieux importants de formation et pour la recherche médicale, et ils jouent un rôle particulier dans divers plans nationaux, en cas d'accident nucléaire ou de pandémie grippale par exemple. Ce sont aussi des sources majeures de données médicales, essentielles à la recherche et à la programmation et à l'évaluation du secteur de la santé publique, ces données restent cependant encore (dans les années 2010), dont pour des raisons déontologiques difficiles d'accès, ce qui pourrait peut-être changer avec l'informatisation du secteur médical (du dossier médical des patients notamment).
+Depuis la crise de 2007 une grande partie des hôpitaux publics français sont en déficit et si leur dette se réduit depuis 2015, c'est au détriment de l'investissement,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La loi définit les centres hospitaliers par défaut : « Les établissements publics de santé qui ne figurent ni sur la liste des centres hospitaliers régionaux, ni sur les listes d’hôpitaux locaux sont des centres hospitaliers » selon l’article R. 6141-16 du Code de la santé publique.
 </t>
@@ -544,10 +558,12 @@
           <t>Statistiques (2018)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon les données disponibles en 2018 : fin 2016, le secteur hospitalier français comprenait 3 065 structures ayant des capacités d’accueil hospitalier à temps complet (lits) ou à temps partiel (ans nuitées). Parmi les 1 376 entités géographiques du secteur public médical coexistaient 4 sortes d'entités hospitalières :
-32 centres hospitaliers régionaux (CHR) : ils offrent les soins les plus spécialisés à une population principalement régionale et des soins courants à la population proche[7] ;
+32 centres hospitaliers régionaux (CHR) : ils offrent les soins les plus spécialisés à une population principalement régionale et des soins courants à la population proche ;
 955 centres hospitaliers (CH) généraux (dont ex-hôpitaux locaux) : ils accueillent plutôt les courts séjours (médecine, chirurgie, obstétrique et odontologie [MCO]) et offrent des soins destinés aux personnes âgées ;
 97 centres hospitaliers spécialisés en psychiatrie ;
 146 autres établissements publics, qui sont essentiellement des unités de soins de longue durée (USLD).</t>
@@ -580,63 +596,374 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ardennes
-Charleville-Mézières
+          <t>Ardennes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Charleville-Mézières
 Sedan
-Vouziers
-Aube
-Brienne-le-Château
+Vouziers</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aube</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Brienne-le-Château
 Romilly-sur-Seine
-Troyes
-Marne
-Châlons-en-Champagne
+Troyes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Marne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Châlons-en-Champagne
 Épernay
 Reims
 Sainte-Menehould
 Sézanne
-Vitry-le-François
-Haute-Marne
-centre hospitalier de Chaumont
+Vitry-le-François</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Haute-Marne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>centre hospitalier de Chaumont
 centre hospitalier de Langres(médecine, obstétrique)
 centre hospitalier de Saint-Dizier (médecine, chirurgie, obstétrique)
-centre hospitalier de la Haute-Marne (psychiatrie, SSR, soins de longue durée, médico-social)
-Meurthe-et-Moselle
-Lunéville
+centre hospitalier de la Haute-Marne (psychiatrie, SSR, soins de longue durée, médico-social)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lunéville
 Adolphe Pinard à Nancy
 Pont-à-Mousson
 Saint-François à Saint-Nicolas-de-Port
-Toul
-Meuse
-Bar-le-Duc
+Toul</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Meuse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bar-le-Duc
 Fains-Véel
 Centre hospitalier intercommunal de Verdun - Saint-Mihiel
-Commercy
-Moselle
-Boulay-Moselle
+Commercy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Moselle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Boulay-Moselle
 Sainte-Barbe à Forbach
 Jury
 Lorquin
 Metz
 Saint-Avold
 Sarrebourg
-Sarreguemines
-Bas-Rhin
-Erstein
+Sarreguemines</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bas-Rhin</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Erstein
 Haguenau
 Saverne
 Sélestat
-Wissembourg
-Haut-Rhin
-Saint-Morand à Altkirch
+Wissembourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Haut-Rhin</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Saint-Morand à Altkirch
 Cernay
 Guebwiller
 Mulhouse
 Pfastatt
 Rouffach
 Saint-Jacques à Thann
-Sausheim
-Vosges
-Centre hospitalier Émile-Durkheim à Épinal
+Sausheim</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vosges</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Centre hospitalier Émile-Durkheim à Épinal
 Gérardmer
 Ravenel à Mirecourt
 Neufchâteau
@@ -646,176 +973,730 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Charente
-Barbezieux-Saint-Hilaire
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Charente</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Barbezieux-Saint-Hilaire
 Centre hospitalier d'Angoulême
 Cognac
 Confolens
 La Couronne
-Ruffec
-Charente-Maritime
-Jonzac
+Ruffec</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Charente-Maritime</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Jonzac
 Centre hospitalier de La Rochelle
 Centre hospitalier de Rochefort
 Saint-Jean-d'Angély
 Centre hospitalier de Royan à Vaux-sur-Mer
 Centre hospitalier de Saintonge à Saintes
-Boscamnant
-Corrèze
-Centre hospitalier de Bort-les-Orgues, direction commune avec le centre hospitalier d'Ussel
+Boscamnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Corrèze</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Centre hospitalier de Bort-les-Orgues, direction commune avec le centre hospitalier d'Ussel
 Centre hospitalier de Brive
 Centre hospitalier Jean-Marie Dauzier à Cornil
 Centre hospitalier du Pays d'Eygurande, prises en charge spécifiques (alcoologie, soins intensifs et sécurisés, etc. et missions intersectorielles (unités pour malades difficiles, UMD), à Monestier-Merlines
 Centre hospitalier Cœur de Corrèze à Tulle
 Centre hospitalier de Haute-Corrèze à Ussel
-Centre hospitalier gériatrique Alexis Boyer à Uzerche
-Creuse
-Aubusson
+Centre hospitalier gériatrique Alexis Boyer à Uzerche</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Creuse</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Aubusson
 Auzances
 Bernard Desplas à Bourganeuf
 Évaux-les-Bains
 Guéret
 Docteur Eugène Jamot à La Souterraine
-Saint-Vaury
-Dordogne
-Centre hospitalier de Lanmary[8],[9] à Antonne-et-Trigonant, direction commune avec le centre hospitalier de Périgueux
-Centre hospitalier Samuel Pozzi[10],[11] à Bergerac
-Centre hospitalier de Domme[12], direction commune avec le centre hospitalier de Périgueux
-Centre hospitalier Vauclaire[13],[14] à Montpon-Ménestérol, centre hospitalier spécialisé
-Centre hospitalier de Périgueux[15],[16]
-Centre hospitalier intercommunal Ribérac Dronne Double[17],[18], fusion des centres hospitaliers de Ribérac, Saint-Aulaye et Saint-Privat-des-Prés
-Centre hospitalier Jean Leclaire[19],[20] à Sarlat-la-Canéda, direction commune avec le centre hospitalier de Périgueux
-Gironde
-Centre hospitalier d'Arcachon[21],[22], situé à La Teste-de-Buch, regroupé sur un même site avec la clinique d'Arcachon pour former le pôle de santé d'Arcachon
-Centre hospitalier de Bazas[23]
-Centre hospitalier de la Haute Gironde[24],[25] à Blaye
-Centre hospitalier Charles Perrens à Bordeaux[26],[27], centre hospitalier spécialisé
-Centre hospitalier de Cadillac[28],[29], centre hospitalier spécialisé
-Centre hospitalier Sud Gironde[30], fusion des centres hospitaliers de Langon et La Réole
-Centre hospitalier Robert Boulin[31],[32] à Libourne
-Centre hospitalier de Sainte-Foy-la-Grande[33]
-Landes
-Centre hospitalier de Dax-Côte d'Argent[34],[35]
-Centre hospitalier de Mont-de-Marsan[36],[37]
-Centre hospitalier de Saint-Sever[38],[39]
-Lot-et-Garonne
-Centre hospitalier d'Agen-Nérac[40],[41], fusion des centres hospitaliers d'Agen et de Nérac
-Centre hospitalier La Candélie à Agen[42],[43], centre hospitalier spécialisé
-Centre hospitalier intercommunal de Marmande-Tonneins[44],[45], fusion des centres hospitaliers de Marmande et Tonneins
-Centre hospitalier de Villeneuve-sur-Lot[46],[47]
-Pyrénées-Atlantiques
-Centre hospitalier de la Côte Basque[48],[49], fusion des centres hospitaliers de Bayonne et Saint-Jean-de-Luz
-Centre hospitalier d'Oloron-Sainte-Marie[50]
-Centre hospitalier d'Orthez[51],[52]
-Centre hospitalier de Pau[53],[54]
-Deux-Sèvres
-Bressuire
-Centre hospitalier de Niort[55]
+Saint-Vaury</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dordogne</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Centre hospitalier de Lanmary, à Antonne-et-Trigonant, direction commune avec le centre hospitalier de Périgueux
+Centre hospitalier Samuel Pozzi, à Bergerac
+Centre hospitalier de Domme, direction commune avec le centre hospitalier de Périgueux
+Centre hospitalier Vauclaire, à Montpon-Ménestérol, centre hospitalier spécialisé
+Centre hospitalier de Périgueux,
+Centre hospitalier intercommunal Ribérac Dronne Double fusion des centres hospitaliers de Ribérac, Saint-Aulaye et Saint-Privat-des-Prés
+Centre hospitalier Jean Leclaire, à Sarlat-la-Canéda, direction commune avec le centre hospitalier de Périgueux</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Centre hospitalier d'Arcachon situé à La Teste-de-Buch, regroupé sur un même site avec la clinique d'Arcachon pour former le pôle de santé d'Arcachon
+Centre hospitalier de Bazas
+Centre hospitalier de la Haute Gironde, à Blaye
+Centre hospitalier Charles Perrens à Bordeaux centre hospitalier spécialisé
+Centre hospitalier de Cadillac centre hospitalier spécialisé
+Centre hospitalier Sud Gironde, fusion des centres hospitaliers de Langon et La Réole
+Centre hospitalier Robert Boulin, à Libourne
+Centre hospitalier de Sainte-Foy-la-Grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Landes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Centre hospitalier de Dax-Côte d'Argent,
+Centre hospitalier de Mont-de-Marsan,
+Centre hospitalier de Saint-Sever,</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lot-et-Garonne</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Centre hospitalier d'Agen-Nérac fusion des centres hospitaliers d'Agen et de Nérac
+Centre hospitalier La Candélie à Agen centre hospitalier spécialisé
+Centre hospitalier intercommunal de Marmande-Tonneins fusion des centres hospitaliers de Marmande et Tonneins
+Centre hospitalier de Villeneuve-sur-Lot,</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Pyrénées-Atlantiques</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Centre hospitalier de la Côte Basque fusion des centres hospitaliers de Bayonne et Saint-Jean-de-Luz
+Centre hospitalier d'Oloron-Sainte-Marie
+Centre hospitalier d'Orthez,
+Centre hospitalier de Pau,</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Deux-Sèvres</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bressuire
+Centre hospitalier de Niort
 Parthenay
-Thouars
-Vienne
-Camille Guérin à Châtellerault
+Thouars</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vienne</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Camille Guérin à Châtellerault
 Théophraste Renaudot à Loudun
 Montmorillon
 Henri Laborit à Nieuil-l'Espoir
-Poitiers
-Haute-Vienne
-Saint-Junien
+Poitiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Haute-Vienne</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Saint-Junien
 Saint-Yrieix-la-Perche</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ain
-Docteur Récamier à Belley
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Ain</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Docteur Récamier à Belley
 Bourg-en-Bresse
 Hauteville-Lompnes
 Oyonnax
 Pont de Vaux
 Trévoux
-Ain - Val de Saône Pont-de-Veyle
-Allier
-Ainay-le-Château : Centre hospitalier spécialisé interdépartemental - 600 places.
+Ain - Val de Saône Pont-de-Veyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Allier</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ainay-le-Château : Centre hospitalier spécialisé interdépartemental - 600 places.
 Bourbon-l'Archambault : Centre hospitalier - 277 places.
 Montluçon : Centre hospitalier de Montluçon - 1346 places.
 Moulins-Yzeure : Centre hospitalier - 1118 places.
 Néris-les-Bains : Centre hospitalier - 155 places.
 Tronget : Hôpital Cœur du Bourbonnais, sur trois sites : Saint-Pourçain-sur-Sioule, Rocles et Tronget - 485 places.
-Vichy : Centre hospitalier Jacques Lacarin - 829 places.
-Ardèche
-Annonay
+Vichy : Centre hospitalier Jacques Lacarin - 829 places.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Ardèche</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Annonay
 Aubenas
 Sante-Marie à Privas
 Saint-Agrève
 Tournon-sur-Rhône
-Paul Ribeyre à Vals-les-Bains
-Cantal
-Aurillac : Centre hospitalier Henri Mondor - 921 places.
+Paul Ribeyre à Vals-les-Bains</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cantal</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Aurillac : Centre hospitalier Henri Mondor - 921 places.
 Chaudes-Aigues : Centre hospitalier Pierre Raynal - 62 places.
 Condat-en-Feniers : Centre hospitalier - 134 places.
 Mauriac : Centre hospitalier - 281 places.
 Murat : Centre hospitalier - 256 places.
-Saint-Flour : Centre hospitalier - 344 places.
-Drôme
-Crest
+Saint-Flour : Centre hospitalier - 344 places.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Drôme</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Crest
 Die
 Montéléger
 Montélimar
 Romans-sur-Isère
-Valence
-Isère
-Centre hospitalier Pierre Oudot (CHPO) à Bourgoin-Jallieu
+Valence</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Isère</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Centre hospitalier Pierre Oudot (CHPO) à Bourgoin-Jallieu
 Pierre Bazin à Coublevie-Voiron
 Centre hospitalier universitaire Grenoble-Alpes à Grenoble
 Hôpital de La Mure
@@ -824,9 +1705,43 @@
 Centre hospitalier de Saint-Laurent-du-Pont
 Hôpital de Saint-Marcellin
 Hôpital Michel Perret à Tullins
-Centre hospitalier Lucien-Hussel de Vienne
-Loire
-Feurs
+Centre hospitalier Lucien-Hussel de Vienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Feurs
 Firminy
 Georges Claudinon au Chambon-Feugerolles
 Mably
@@ -834,23 +1749,125 @@
 Roanne
 Saint-Chamond
 Saint-Étienne
-Saint-Just-Saint-Rambert
-Haute-Loire
-Brioude : Centre hospitalier - 220 places.
+Saint-Just-Saint-Rambert</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Haute-Loire</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Brioude : Centre hospitalier - 220 places.
 Craponne-sur-Arzon : Hôpital de proximité - 153 places.
 Langeac : Centre hospitalier Pierre Gallice - 316 places.
 Puy-en-Velay : Centre hospitalier Émile Roux - 537 places.
-Yssingeaux : Centre hospitalier - 250 places.
-Puy-de-Dôme
-Ambert : Centre hospitalier - 307 places.
+Yssingeaux : Centre hospitalier - 250 places.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Puy-de-Dôme</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Ambert : Centre hospitalier - 307 places.
 Billom : Centre hospitalier - 389 places.
 Enval : Centre hospitalier Étienne Clémentel - 168 places.
 Issoire : Centre hospitalier Paul Ardier - 286 places.
 Mont-Dore : Centre hospitalier - 201 places.
 Riom : Centre hospitalier Guy Thomas - 147 places.
-Thiers : Centre hospitalier - 428 places.
-Rhône
-Le Médipôle Lyon-Villeurbanne, le plus grand centre hospitalier privé de France.
+Thiers : Centre hospitalier - 428 places.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Rhône</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Le Médipôle Lyon-Villeurbanne, le plus grand centre hospitalier privé de France.
 Albigny-sur-Saône
 Bron
 Givors
@@ -859,17 +1876,85 @@
 Saint-Cyr-au-Mont-d'Or
 Sainte-Foy-lès-Lyon
 Tarare
-Villefranche-sur-Saône
-Savoie
-Albertville
+Villefranche-sur-Saône</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Savoie</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Albertville
 Aix-les-Bains
 Bassens
 Bourg-Saint-Maurice
 Chambéry
 Moûtiers
-Saint-Jean-de-Maurienne
-Haute-Savoie
-Ambilly
+Saint-Jean-de-Maurienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Haute-Savoie</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Ambilly
 Annecy
 Chamonix-Mont-Blanc
 Sallanches
@@ -878,111 +1963,359 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Bourgogne-Franche-Comté</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Côte-d'Or
-Auxonne
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Côte-d'Or</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Auxonne
 Philippe le Bon à Beaune
 Centre hospitalier universitaire Dijon-Bourgogne
 Montbard
 du Morvan à Saulieu
-Robert Morlevat à Semur-en-Auxois
-Nièvre
-Clamecy
+Robert Morlevat à Semur-en-Auxois</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Nièvre</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Clamecy
 Cosne-Cours-sur-Loire
 Decize
 Henri Dunant à La Charité-sur-Loire
-Nevers
-Saône-et-Loire
-Autun
+Nevers</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Saône-et-Loire</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Autun
 Bourbon-Lancy
 William Morey à Chalon-sur-Saône
 Charolles
 Le Rompoix à La Guiche
 Mâcon
 Montceau-les-Mines
-Paray-le-Monial
-Yonne
-Auxerre
+Paray-le-Monial</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yonne</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Auxerre
 Avallon
 Joigny
 Gaston Ramon à Sens
 Tonnerre
-Villeneuve-sur-Yonne
-Doubs
-Centre hospitalier régional universitaire de Besançon
-Pontarlier
-Haute-Saône
-Groupe hospitalier de la Haute-Saône
+Villeneuve-sur-Yonne</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Doubs</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Centre hospitalier régional universitaire de Besançon
+Pontarlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Haute-Saône</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Groupe hospitalier de la Haute-Saône
 Centre hospitalier de Vesoul
 Centre hospitalier de Gray
 Site de Lure
 Site de Luxeuil-les-Bains
-Centre hospitalier spécialisé de Saint-Remy
-Jura
-Champagnole
+Centre hospitalier spécialisé de Saint-Remy</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Jura</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Champagnole
 Dole
 Lons-le-Saunier
 Morez
 Saint-Claude
-Salins-les-Bains
-Territoire de Belfort
-Hôpital Nord Franche-Comté</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Salins-les-Bains</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Territoire de Belfort</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Hôpital Nord Franche-Comté</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Bretagne</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Côtes-d'Armor
-Centre hospitalier spécialisé de Bégard
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Côtes-d'Armor</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Centre hospitalier spécialisé de Bégard
 Dinan
 Centre hospitalier René-Pleven à Dinan
 Centre hospitalier Saint-Jean-de-Dieu à Dinan
@@ -992,9 +2325,43 @@
 Centre hospitalier de Paimpol
 Centre hospitalier de Plouguernével à Plouguernével
 Centre hospitalier Yves Le Foll à Saint-Brieuc
-Centre hospitalier de Tréguier
-Finistère
-Quimper
+Centre hospitalier de Tréguier</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Finistère</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Quimper
 Étienne Gourmelen à Quimper
 Cornouaille Quimper-Concarneau
 Carhaix-Plouguer
@@ -1002,18 +2369,86 @@
 Ferdinand Grall à Landerneau
 Morlaix
 Pont-l'Abbé
-Quimperlé
-Ille-et-Vilaine
-Fougères
+Quimperlé</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Ille-et-Vilaine</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Fougères
 Redon
 Centre hospitalier Guillaume-Régnier à Rennes
 Saint-Grégoire
 Broussais à Saint-Malo
 Vitré
 Centre Hospitalier de Cancale
-Centre Hospitalier de Saint-Malo
-Morbihan
-Centre hospitalier Bretagne Sud à Lorient (CHBS)
+Centre Hospitalier de Saint-Malo</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Morbihan</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Centre hospitalier Bretagne Sud à Lorient (CHBS)
 Centre hospitalier Bretagne Atlantique à Vannes (hôpital Prosper-Chubert) et Auray (hôpital Le Pratel)
 Centre hospitalier du Centre-Bretagne à Pontivy
 Le Riantec
@@ -1024,92 +2459,269 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>Centre-Val de Loire</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Cher
-Bourges
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Cher</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Bourges
 Centre hospitalier Jacques Cœur
 Intercommunal George-Sand à Bourges, Dun-sur-Auron et Chezal-Benoît
 Saint-Amand-Montrond
-Vierzon
-Eure-et-Loir
-Henri-Ey à Bonneval
+Vierzon</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Eure-et-Loir</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Henri-Ey à Bonneval
 Louis-Pasteur à Chartres
 Châteaudun : Centre Hospitalier de Châteaudun
 Victor-Jousselin à Dreux
-Nogent-le-Rotrou
-Indre
-Châteauroux
+Nogent-le-Rotrou</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Indre</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Châteauroux
 La  Tour Blanche à Issoudun
 La Châtre
-Le Blanc
-Indre-et-Loire
-Intercommunal Amboise-Château-Renault
+Le Blanc</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Indre-et-Loire</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Intercommunal Amboise-Château-Renault
 Chinon
 Loches
-Luynes
-Loir-et-Cher
-Blois
+Luynes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Loir-et-Cher</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Blois
 Romorantin-Lanthenay
 Saint-Aignan
-Vendôme
-Loiret
-Centre hospitalier de l'agglomération montargoise à Amilly
+Vendôme</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Loiret</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Centre hospitalier de l'agglomération montargoise à Amilly
 Établissement public de santé mentale du Loiret Georges-Daumezon à Fleury-les-Aubrais
 Pierre-Dezarnaulds à Gien
 Pithiviers</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>Corse</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Centre hospitalier d'Ajaccio
 Centre hospitalier Notre-Dame de la Miséricorde à Ajaccio
@@ -1121,86 +2733,329 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>Île-de-France</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Essonne
-Arpajon
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Essonne</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Arpajon
 Centre hospitalier Sud Essonne fusion entre le CH d'Etampes et le CH de Dourdan
 Barthélémy Durand à Étampes
 Sud Francilien à Évry
 Groupe Hospitalier Nord Essonne regroupant les hôpitaux de Juvisy-sur-Orge, Longjumeau et Orsay.
-Ris-Orangis
-Hauts-de-Seine
-Les Abondances à Boulogne-Billancourt
+Ris-Orangis</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Hauts-de-Seine</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Les Abondances à Boulogne-Billancourt
 Erasme à Antony
 Fondation Roguet à Clichy
 CASH à Nanterre
 Courbevoie - Neuilly-sur-Seine à Neuilly-sur-Seine
 Puteaux
 Rueil-Malmaison
-Saint-Cloud
-Paris
-Institut Pasteur
+Saint-Cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Institut Pasteur
 Institut Curie
 Quinze-Vingt
-Sainte-Anne
-Seine-et-Marne
-René Arbeltier à Coulommiers
+Sainte-Anne</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Seine-et-Marne</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>René Arbeltier à Coulommiers
 Fontainebleau
 Centre hospitalier de Marne-la-Vallée à Jossigny
 Saint-Faron à Meaux
 Marc Jacquet à Melun
 Montereau-Fault-Yonne
 Nemours
-Léon Binet à Provins
-Seine-Saint-Denis
-Robert Ballanger à Aulnay-sous-Bois
+Léon Binet à Provins</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Seine-Saint-Denis</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Robert Ballanger à Aulnay-sous-Bois
 Le Raincy
 Montfermeil
 André Grégoire à Montreuil
 Saint-Denis
-Jean Verdier à Bondy
-Val-de-Marne
-Chevilly-Larue
+Jean Verdier à Bondy</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Val-de-Marne</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Chevilly-Larue
 Henri Mondor à Créteil
 Charles Foix à Ivry-sur-Seine
 Les Murets à La Queue-en-Brie
 Le Kremlin-Bicêtre
-Villeneuve-Saint-Georges
-Val-d'Oise
-Victor Dupouy à Argenteuil
+Villeneuve-Saint-Georges</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Val-d'Oise</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Victor Dupouy à Argenteuil
 Jacques Fritschi à Beaumont-sur-Oise
 Gonesse
 Magny-en-Vexin
 Roger Prévôt à Moisselles
 René Dubos à Pontoise
-Simone Veil à Eaubonne Montmorency
-Yvelines
-Hôpital Pédiatrique et de Rééducation à Bullion
+Simone Veil à Eaubonne Montmorency</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Yvelines</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Hôpital Pédiatrique et de Rééducation à Bullion
 François Quesnay à Mantes-la-Jolie
 Meulan-Les Mureaux
 Théophile Roussel à Montesson
@@ -1208,54 +3063,127 @@
 Jean-Martin Charcot à Plaisir
 Poissy-Saint-Germain-en-Laye
 Rambouillet
-Trappes-Hôpital privé de l'Ouest Parisien[56].
+Trappes-Hôpital privé de l'Ouest Parisien.
 Versailles (Le Chesnay)
 Le Vésinet</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>Occitanie</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Ariège
-Ax-les-Thermes : Centre hospitalier Saint-Louis
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Ariège</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Ax-les-Thermes : Centre hospitalier Saint-Louis
 Lavelanet : Centre hospitalier du Pays d'Olmes
 Saint-Jean-de-Verges: Centre hospitalier intercommunal du val d'Ariège (Foix - Pamiers)
 Saint-Lizier : Centre hospitalier Ariège-Couserans (Saint-Girons)
-Tarascon-sur-Ariège : Centre hospitalier Jules Rousse
-Aude
-Carcassonne : Centre hospitalier de Carcassonne
+Tarascon-sur-Ariège : Centre hospitalier Jules Rousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Aude</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Carcassonne : Centre hospitalier de Carcassonne
 Castelnaudary : Centre hospitalier Jean-Pierre Cassabel
 Lézignan-Corbières : Centre hospitalier de Lézignan-Corbières
 Limoux : Centre hospitalier de Limoux
 Narbonne : Centre hospitalier de Narbonne
 Port-la-Nouvelle : Centre hospitalier Francis Vals
-Quillan : Centre hospitalier de Quillan
-Aveyron
-Decazeville : Centre hospitalier Pierre Delpech
+Quillan : Centre hospitalier de Quillan</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Aveyron</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Decazeville : Centre hospitalier Pierre Delpech
 Espalion : Centre hospitalier Jean Solinhac
 Millau : Centre hospitalier de Millau
 Rodez : Groupe hospitalier de Rodez
@@ -1263,30 +3191,166 @@
 Saint-Geniez-d'Olt-et-d'Aubrac : Centre hospitalier Étienne Rivié
 Salles-la-Source : Centre hospitalier du Vallon
 Sévérac-d'Aveyron : Centre hospitalier Maurice Fenaille
-Villefranche-de-Rouergue : Centre hospitalier La Chartreuse
-Gard
-Alès : Centre hospitalier Alès - Cévennes
+Villefranche-de-Rouergue : Centre hospitalier La Chartreuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Gard</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Alès : Centre hospitalier Alès - Cévennes
 Bagnols-sur-Cèze : Centre hospitalier de Bagnols-sur-Cèze
 Fontanès : Centre hospitalier Le Mas Careiron
 Nîmes : Centre hospitalier universitaire de Nîmes
 Ponteils-et-Brésis : Centre hospitalier de Ponteils
 Uzès : Centre hospitalier d'Uzès
-Le Vigan : Centre hospitalier du Vigan
-Haute-Garonne
-Bagnères-de-Luchon : Centre hospitalier de Luchon
+Le Vigan : Centre hospitalier du Vigan</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Haute-Garonne</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bagnères-de-Luchon : Centre hospitalier de Luchon
 Muret : Centre hospitalier de Muret
 Revel : Centre hospitalier de Revel
 Saint-Gaudens : Centre hospitalier Comminges - Pyrénées
 Toulouse : Centre hospitalier universitaire de Toulouse : sites de Purpan, Rangueil, Larrey, Paule de Viguier, Hôpital des Enfants, La Grave, Casselardit, Hôtel-Dieu Saint-Jacques, La Fontaine Salée (Salies-du-Salat)
 Toulouse : Centre hospitalier Gérard-Marchant
-Toulouse : Centre hospitalier Joseph-Ducuing
-Gers
-Auch : Centre hospitalier d'Auch
+Toulouse : Centre hospitalier Joseph-Ducuing</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Gers</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Auch : Centre hospitalier d'Auch
 Condom : Centre hospitalier de Condom
 Lombez : Centre hospitalier de Lombez
-Mirande : Centre hospitalier Saint-Jacques
-Hérault
-Agde : Centre hospitalier du Bassin de Thau (Hôpital Saint-Loup)
+Mirande : Centre hospitalier Saint-Jacques</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Hérault</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Agde : Centre hospitalier du Bassin de Thau (Hôpital Saint-Loup)
 Bédarieux : Centre hospitalier de Bédarieux
 Béziers : Centre hospitalier de Béziers
 Clermont-l'Hérault : Centre hospitalier de Clermont-l'Hérault
@@ -1294,68 +3358,277 @@
 Lodève : Centre hospitalier de Lodève
 Montpellier : Centre hospitalier universitaire de Montpellier
 Saint-Pons-de-Thomières : Centre hospitalier de Saint-Pons-de-Thomières
-Sète : Centre hospitalier du Bassin de Thau (Hôpital Saint-Clair)
-Lot
-Cahors : Centre hospitalier de Cahors
+Sète : Centre hospitalier du Bassin de Thau (Hôpital Saint-Clair)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Lot</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Cahors : Centre hospitalier de Cahors
 Figeac : Centre hospitalier de Figeac
 Gourdon : Centre hospitalier Jean Coulon
-Saint-Céré : Centre hospitalier Saint-Jacques
-Lozère
-Florac-Trois-Rivières : Centre hospitalier Théophile Roussel
+Saint-Céré : Centre hospitalier Saint-Jacques</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Lozère</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Florac-Trois-Rivières : Centre hospitalier Théophile Roussel
 Marvejols : Centre hospitalier Saint-Jacques
 Mende : Centre hospitalier de Mende
-Saint-Alban-sur-Limagnole : Centre hospitalier François-Tosquelles
-Hautes-Pyrénées
-Astugue : Centre hospitalier Le Montaigu
+Saint-Alban-sur-Limagnole : Centre hospitalier François-Tosquelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Hautes-Pyrénées</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Astugue : Centre hospitalier Le Montaigu
 Bagnères-de-Bigorre : Centre hospitalier de Bagnères-de-Bigorre
 Lannemezan : Centre hospitalier de Lannemezan
 Lourdes : Centre hospitalier de Lourdes
 Tarbes : Centre hospitalier de Bigorre (sites de La Gespe et de l'Ayguerote)
-Vic-en-Bigorre : Centre hospitalier de Bigorre (site de Vic-en-Bigorre)
-Pyrénées-Orientales
-Perpignan : Centre hospitalier de Perpignan
+Vic-en-Bigorre : Centre hospitalier de Bigorre (site de Vic-en-Bigorre)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Pyrénées-Orientales</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Perpignan : Centre hospitalier de Perpignan
 Prades : Centre hospitalier de Prades
-Thuir : Centre hospitalier Léon-Jean Grégory
-Tarn
-Albi : Centre hospitalier d'Albi
+Thuir : Centre hospitalier Léon-Jean Grégory</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Tarn</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Albi : Centre hospitalier d'Albi
 Castres - Mazamet : Centre hospitalier Intercommunal de Castres - Mazamet
 Gaillac : Centre hospitalier de Gaillac
-Lavaur : Centre hospitalier de Lavaur
-Tarn-et-Garonne
-Castelsarrasin - Moissac : Centre hospitalier Intercommunal de Castelsarrasin - Moissac
+Lavaur : Centre hospitalier de Lavaur</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Tarn-et-Garonne</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Castelsarrasin - Moissac : Centre hospitalier Intercommunal de Castelsarrasin - Moissac
 Montauban : Centre hospitalier de Montauban
 Valence : Centre hospitalier des Deux Rives</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>Hauts-de-France</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Nord
-Armentières
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Armentières
 Avesnes-sur-Helpe : Centre hospitalier du Pays d'Avesnes
 Bailleul
 Cambrai
@@ -1377,9 +3650,43 @@
 Tourcoing : Centre hospitalier Gustave Dron
 Valenciennes
 Wasquehal : Centre hospitalier intercommunal
-Wattrelos
-Pas-de-Calais
-Aire-sur-la-Lys : Centre hospitalier - 310 lits.
+Wattrelos</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Aire-sur-la-Lys : Centre hospitalier - 310 lits.
 Arras : Centre hospitalier - 1 566 lits.
 Bapaume : Centre hospitalier - 259 lits.
 Béthune : Centre hospitalier - 647 lits.
@@ -1391,9 +3698,43 @@
 Lens : Centre hospitalier Dr Schaffner - 1 357 lits.
 Montreuil-sur-Mer : Centre hospitalier de l'Arrondissement de Montreuil, réparti sur cinq sites (Berck, Campagne-lès-Hesdin, Étaples, Montreuil) avec site principal à Rang-du-Fliers - 958 lits.
 Saint-Omer : Centre hospitalier de la région de Saint-Omer à Helfaut - 673 lits.
-Saint-Pol-sur-Ternoise : Centre hospitalier du Ternois - 488 lits.
-Aisne
-Château-Thierry
+Saint-Pol-sur-Ternoise : Centre hospitalier du Ternois - 488 lits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Aisne</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Château-Thierry
 Chauny
 Guise
 Brisset à Hirson
@@ -1401,9 +3742,43 @@
 Laon
 Le Nouvion-en-Thiérache
 Soissons
-Saint-Quentin
-Oise
-Beauvais
+Saint-Quentin</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Oise</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Beauvais
 Bertinot-Juel à Chaumont-en-Vexin
 Clermont-de-l'Oise
 Compiègne
@@ -1411,9 +3786,43 @@
 Fitz-James
 Noyon
 Georges Decroze à Pont-Sainte-Maxence
-Senlis
-Somme
-Abbeville
+Senlis</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Somme</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Abbeville
 Albert
 Centre Hospitalier Universitaire d'Amiens
 Corbie
@@ -1424,34 +3833,39 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>Normandie</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Calvados
-Caen :
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Calvados</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Caen :
 Saint-Martin
 Miséricorde
 Aunay-sur-Odon
@@ -1460,9 +3874,43 @@
 Lisieux : Centre hospitalier Robert Bisson
 Pont-l'Évêque
 Trouville-sur-Mer
-Vire
-Manche
-Cherbourg-Octeville :
+Vire</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Manche</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Cherbourg-Octeville :
 Centre hospitalier public du Cotentin (Centre Hospitalier départemental)
 Polyclinique
 Avranches Centre hospitalier d'Avranches-Granville
@@ -1471,25 +3919,127 @@
 Pontorson
 Saint-Hilaire-du-Harcouët
 Saint-Lô : Centre hospitalier mémorial France - États-Unis
-Valognes : antenne du Centre hospitalier public du Cotentin
-Orne
-L'Aigle
+Valognes : antenne du Centre hospitalier public du Cotentin</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Orne</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>L'Aigle
 Alençon
 Argentan
 Intercommunal Domfront-La Ferté-Macé
 Jacques Monod à Flers
-Marguerite de Lorraine à Mortagne-au-Perche
-Eure
-Évreux
+Marguerite de Lorraine à Mortagne-au-Perche</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Eure</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Évreux
 De Navarre à Évreux
 Intercommunal Évreux-Vernon
 Bernay
 Gisors
 La Risle à Pont-Audemer
 Verneuil-sur-Avre
-Intercommunal Louviers/Val de Reuil
-Seine-Maritime
-Durécu-Lavoisier à Darnétal
+Intercommunal Louviers/Val de Reuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Seine-Maritime</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Durécu-Lavoisier à Darnétal
 Dieppe
 Intercommunal Elbeuf
 Eu
@@ -1502,34 +4052,39 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>Pays de la Loire</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Loire-Atlantique
-Francis Robert à Ancenis-Saint-Géréon
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Loire-Atlantique</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Francis Robert à Ancenis-Saint-Géréon
 Blain
 Carquefou
 Châteaubriant
@@ -1537,26 +4092,162 @@
 Machecoul
 Montbert
 Nantes
-Saint-Nazaire
-Maine-et-Loire
-Angers
+Saint-Nazaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Maine-et-Loire</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Angers
 Cholet
 Saumur
-Segré
+Segré</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Mayenne</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Laval
 Mayenne
-Laval
-Mayenne
-Château-Gontier
-Sarthe
-Allonnes
+Château-Gontier</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sarthe</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Allonnes
 Château-du-Loir
 La Ferté-Bernard
 Pôle Santé Sarthe et Loir au Bailleul, entre La Flèche et Sablé-sur-Sarthe
 Le Mans
 Mamers
-Saint-Calais
-Vendée
-Challans
+Saint-Calais</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Vendée</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Challans
 Fontenay-le-Comte
 CHD à La Roche-sur-Yon
 Georges-Mazurelle à La Roche-sur-Yon (spécialisé en psychiatrie)
@@ -1566,46 +4257,119 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Alpes-de-Haute-Provence
-Digne-les-Bains
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Alpes-de-Haute-Provence</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Digne-les-Bains
 Manosque
 Élie Fauque à Sisteron
-Forcalquier (hôpital Saint-Michel)
-Alpes-Maritimes
-Antibes
+Forcalquier (hôpital Saint-Michel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Antibes
 Cannes
 Grasse
 Menton
 Centre hospitalier universitaire de Nice
-Jean Chanton à Roquebillière
-Bouches-du-Rhône
-Centre hospitalier intercommunal Aix-Pertuis
+Jean Chanton à Roquebillière</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bouches-du-Rhône</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Centre hospitalier intercommunal Aix-Pertuis
 Hôpital Montperrin à Aix-en-Provence  (établissement de santé mentale)
 Allauch
 Joseph Imbert à Arles
@@ -1614,22 +4378,124 @@
 Hopital Édouard Toulouse à Marseille(établissement de santé mentale) ,
 Valvert à Marseille
 Martigues
-Salon-de-Provence
-Hautes-Alpes
-Briançon
+Salon-de-Provence</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Hautes-Alpes</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Briançon
 Embrun
-Gap
-Var
-Jean Marcel à Brignoles
+Gap</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Jean Marcel à Brignoles
 Centre hospitalier de la Dracénie à Draguignan
 Centre hospitalier intercommunal Fréjus-Saint-Raphaël
 Centre hospitalier au sein du pôle de Santé du golfe de Saint-Tropez à Gassin
 Hôpital San Salvadour à Hyères
 Hôpital Renée-Sabran à Hyères
 Henri Guérin à Pierrefeu-du-Var
-Centre hospitalier intercommunal Toulon-La Seyne-sur-Mer
-Vaucluse
-Apt
+Centre hospitalier intercommunal Toulon-La Seyne-sur-Mer</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Vaucluse</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Apt
 Avignon
 Carpentras
 Intercommunal de Cavaillon-Lauris
@@ -1641,47 +4507,189 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>DOM</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Mayotte
-Centre hospitalier de Mayotte
-Guadeloupe
-Centre hospitalier universitaire de Pointe-à-Pitre
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Mayotte</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centre hospitalier de Mayotte
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>DOM</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Guadeloupe</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Centre hospitalier universitaire de Pointe-à-Pitre
 Centre hospitalier de Basse-Terre
 Centre hospitalier de Capesterre-Belle-Eau
-Centre hospitalier de Sainte-Marie Marie-Galante
-Guyane
-Centre hospitalier Andrée-Rosemon
+Centre hospitalier de Sainte-Marie Marie-Galante</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>DOM</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Guyane</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Centre hospitalier Andrée-Rosemon
 Centre hospitalier de Kourou
-Centre hospitalier de l'Ouest Guyanais
-Martinique
-Centre hospitalier universitaire de Martinique
-Réunion
-Centre hospitalier Félix-Guyon
+Centre hospitalier de l'Ouest Guyanais</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>DOM</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Martinique</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Centre hospitalier universitaire de Martinique</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_(France)</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>DOM</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Centre hospitalier Félix-Guyon
 Centre hospitalier Sud Réunion</t>
         </is>
       </c>
